--- a/pet-simulator/Excel/Buff_增强道具表.xlsx
+++ b/pet-simulator/Excel/Buff_增强道具表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EDB027-20B3-4508-8509-3F3A85B94C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B3113F-9F83-40D2-97F4-930B2C643BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="WpsReserved_CellImgList" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -560,7 +560,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>

--- a/pet-simulator/Excel/Buff_增强道具表.xlsx
+++ b/pet-simulator/Excel/Buff_增强道具表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B3113F-9F83-40D2-97F4-930B2C643BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33550429-4C01-405D-8392-D1E110A1982B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="WpsReserved_CellImgList" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -560,7 +560,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="F17:G17"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
